--- a/Assets/PSW/Excel/UIText.xlsx
+++ b/Assets/PSW/Excel/UIText.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,15 +29,834 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TextTypeIndex</t>
+    <t>고민이 많을 때는 천천히 해도 괜찮아.</t>
+  </si>
+  <si>
+    <t>혹시 내가 알고있는 정보가 너에게 도움이 될까?
+,
+음... 너무 어려워서 답답할땐 이 버튼을 눌러보는건 어때?
+,
+내가 도와줄게.</t>
+  </si>
+  <si>
+    <t>(미정)</t>
+  </si>
+  <si>
+    <t>Info</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cheer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BigHint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmallHint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StageIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이제부터는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>많이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나올것</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>같은데</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">?
+,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반복</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>블록을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적극적으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용해보자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자~ 우선은 나를 이동 시켜서
+ 공격 명령까지 내려보자!
+,
+앞으로의 모험에서 계속 하게 될 일이니
+ 지금 잘 익혀보자구!</t>
+  </si>
+  <si>
+    <t>드디어 찾았다 저 원숭이 녀석!
+,
+적이 한 마리가 더 늘었지만... 문제없어!
+ 각각 공격해서 쓰러트리기. 기억하지?
+,
+자! 가보자!</t>
+  </si>
+  <si>
+    <t>헉 저게 뭐야...? 왜저렇게 큰거야!
+ 으으... 무섭지만... 괜찮아.
+ 우린 함께니까.
+,
+내가 볼땐!
+저 녀석은 3번은 연속으로 때려야 쓰러지겠는걸?
+,
+여기부터는 '반복'의 힘이 필요할거야.
+,
+반복 코드 블록을 통해
+ 저 끝까지 가서 적을 쓰러트리자!</t>
+  </si>
+  <si>
+    <t>단단한 녀석들이 잔뜩 있네...
+ 코드 블록을 더 많이 써야겠는걸?
+,
+그래도 저 녀석들... 꽤 규칙있게 서있네.
+ 이 점을 이용해보자!</t>
+  </si>
+  <si>
+    <t>저기 오징어다!
+ 얼른 가서 저 수호자도
+ 버그로부터 구해주자.
+,
+반복 코드 블록을 사용해서
+ 콤보로 공격하기!
+ 이것만 알면 충분히 해낼 수 있을거야.</t>
+  </si>
+  <si>
+    <t>우와 이번엔 적이 어떤 속성인지가 안보이네?
+ 점점 어려워지는걸...
+,
+음! 여기부터는 조건 블록을 사용해보자.
+ 저 수풀 위에 속성 표시 보이지?
+,
+수풀 속에 숨어있는 적의 속성이
+ 저 두가지 중 하나라는 뜻이야.
+,
+그럼 각각의 조건에 맞는 블록을
+ 조건 블록 안에 넣어두면 되겠지?</t>
+  </si>
+  <si>
+    <t>이번엔 의문의 적이 두마리다!
+ 하나하나 어떤 속성이 나올 수 있는지 확인하고
+ 그에 맞게 코드 블록을 구성하면 될거야.</t>
+  </si>
+  <si>
+    <t>우와... 이번엔 세마리야?
+ 심지어 각각 다 조건이 다르네.
+,
+음! 쉽지는 않겠지만!
+ 그래도 너라면 할 수 있을거야!
+ 침착하게 속성부터 확인해보자구.</t>
+  </si>
+  <si>
+    <t>이럴수가... 저 사슴이 조건의 수호자였다니.
+ ...충격받고 있을 때가 아니지!
+.
+이번에도 침착하게 속성부터 확인하자.
+ 차근차근 하면 못할 것도 없어!
+,
+얼른 가서 마지막 수호자를 구해주자!</t>
+  </si>
+  <si>
+    <t>여기서도 속성을 알 수 없는 적이 나오네?
+ 게다가 이동 거리도 길구...
+ 평범하게는 지나갈 수 없겠네.
+,
+이제부턴 반복 블록과 조건 블록을
+ 모두 사용해야할 것 같아.</t>
+  </si>
+  <si>
+    <t>세상에! 이번엔 저 커다란 녀석들까지?
+ 아무래도 이상해. 여기가 원래 이런 곳은 아닐텐데...
+,
+한시라도 빨리 그 해커 녀석을 잡아야겠어...!</t>
+  </si>
+  <si>
+    <t>휴... 갈수록 점점 어려워지는 것 같네.
+ 이것도 그 해커 때문이겠지?
+,
+그래도 이제 거의 다 온 것 같아.
+ 조금만 더 힘내보자.
+,
+이번에는 큰 녀석들이 둘이니까...
+ 반복 블록을 또 잘 써봐야겠다!</t>
+  </si>
+  <si>
+    <t>드디어 마지막까지 왔어.
+,
+역시... 누가 마지막 아니랄까봐...
+ 딱 봐도 우릴 짜증나게 하려는게 목적인것 같지?
+,
+그렇다고 여기서 물러날 순 없지!
+ 그동안 배운 모든 것들을 총 동원해서 돌파해보자!</t>
+  </si>
+  <si>
+    <t>열심히 생각중이구나!  난 그런 네 모습이 싫지않아~</t>
+  </si>
+  <si>
+    <t>넌 해낼 수 있을거야.  난 널 믿어!</t>
+  </si>
+  <si>
+    <t>이번 스테이지에서는
+ 오른쪽으로 두칸 이동해서
+ 불 속성 공격을 사용하면 될 것 같아!</t>
+  </si>
+  <si>
+    <t>이번 스테이지에서는
+ 풀 속성 공격을 5번째로 사용하고,
+ 불 속성 공격을 10번째로 사용하면 될 것 같아!</t>
+  </si>
+  <si>
+    <t>이번 스테이지에서는
+ 오른쪽으로 6번 이동하는 반복 블록과
+ 불 속성 공격을 3회 연속 사용하는 반복블록을 사용하면 될 것 같아!</t>
+  </si>
+  <si>
+    <t>이번 스테이지에서는
+ 풀 속성 공격을 3회 연속 사용하는 반복 블록과
+,
+이동 후에 물 속성 공격을 하는걸
+ 2회 반복하는 반복 블록을 사용하면 될 것 같아!</t>
+  </si>
+  <si>
+    <t>이번 스테이지에서는
+ 위로 두칸 이동해서 풀 속성 공격을 3회 연속 사용하는걸
+ 2회 반복하는 반복블록과
+,
+ 이동 후에 물 속성 공격을 3회 연속 사용하는걸
+ 3회 반복하는 반복 블록을 사용하면 될 것 같아!</t>
+  </si>
+  <si>
+    <t>이번 스테이지에서는
+ 위로 한칸 이동해서 풀 속성 공격을 3회 연속 사용하고
+ 오른쪽으로 한 칸 이동하는걸 2회 반복하는 반복블록과
+,
+위로 한칸 이동해서 물 속성 공격을 3회 연속 사용하는걸
+ 2회 반복하는 반복 블록과
+,
+불 속성 공격을 3회 반복하는 반복 블록을 사용하면 될 것 같아!</t>
+  </si>
+  <si>
+    <t>이번 스테이지에서는
+ 풀 속성 적에게 불 속성 공격을 하고
+ 아니라면 물 속성 공격을 하는 조건 블록을 4번째로 사용하면 될 것 같아!</t>
+  </si>
+  <si>
+    <t>이번 스테이지에서는
+ 물 속성 적에게 풀 속성 공격을 하고
+ 아니라면 불 속성 공격을 하는 조건 블록을 4번째로 사용하고
+,
+불 속성 적에게 물 속성 공격을 하고
+ 아니라면 풀 속성 공격을 하는 조건 블록을 7번째로 사용하면 될 것 같아!</t>
+  </si>
+  <si>
+    <t>이번 스테이지에서는
+ 물 속성 적에게 풀 속성 공격을 하고
+ 아니라면 불 속성 공격을 하는 조건 블록을 2번째로 사용하고
+,
+불 속성 적에게 물 속성 공격을 하고
+ 아니라면 풀 속성 공격을 하는 조건 블록을 5번째로 사용하고
+,
+불 속성 적에게 물 속성 공격을 하고
+ 아니라면 불 속성 공격을 하는 조건 블록을 8번째로 사용하면 될 것 같아!</t>
+  </si>
+  <si>
+    <t>이번 스테이지에서는
+ 물 속성 적에게 풀 속성 공격을 하고
+ 아니라면 불 속성 공격을 하는 조건 블록을 4번째로 사용하고
+,
+불 속성 적에게 물 속성 공격을 하고
+ 아니라면 풀 속성 공격을 하는 조건 블록을 8번째로 사용하고
+,
+불 속성 적에게 물 속성 공격을 하고
+ 아니라면 속성 공격을 하는 조건 블록을 11번째로 사용하면 될 것 같아!</t>
+  </si>
+  <si>
+    <t>이번 스테이지에서는
+ 풀 속성 적에게 불 속성 공격을 하고
+ 아니라면 물 속성 공격을 하는 조건 블록을 5번째로 사용하고
+,
+풀 속성 적에게 불 속성 공격을 하고
+ 아니라면 풀 속성 공격을 하는 조건 블록을 9번째와 16번째로 사용하고
+,
+불 속성 적에게 물 속성 공격을 하고
+ 아니라면 속성 공격을 하는 조건 블록을 13번째로 사용하면 될 것 같아!</t>
+  </si>
+  <si>
+    <t>...어라? 다 끝난거 아니었어? 
+아직 적이 남아있네!
+,
+이럴땐 코드 블록이 더 필요해.
+,
+블록을 더 많~이 놓아볼까?</t>
+  </si>
+  <si>
+    <t>지금의 공격은 적에게 큰 영향을 주지 않는 것 같아...
+,
+적이 어떤 속성에 약할지를 생각해서
+ 다른 속성을 한 번 시도해볼까?</t>
+  </si>
+  <si>
+    <t>이번 공격도 좋았지만 
+적을 물리치려면 연속 공격이 필요해!
+,
+한 번 더 도전해보자! 
+조금만 더 힘내!</t>
+  </si>
+  <si>
+    <t>아야! 뭐지? 
+이건... 벽이잖아?
+,
+이렇게 생긴 칸은 지나갈 수 없어. 
+다른 방향으로 가야할 것 같아!</t>
+  </si>
+  <si>
+    <t>앗! 뜨거워!
+ 이 발판은 너무 위험해...
+,
+다치지 않게 안전한 길로 돌아가자!</t>
+  </si>
+  <si>
+    <t>이런! 식충식물이잖아!
+ 휴 하마터면 먹힐 뻔했어
+,
+이쪽으로는 가지말자.
+ 안전한 길이 있을거야!</t>
+  </si>
+  <si>
+    <t>우와! 정말 아찔했어!
+,
+음... 이쪽 방향은 좀 위험한 것 같아.
+ 다른 방향으로 가보자.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이번엔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>두</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마리나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있네</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">!
+,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이번</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스테이지에선</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>저</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">두마리를
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>각각</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공격해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쓰러트리면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>될</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>것</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>같아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번엔 좀 더 많이 움직여야 겠는걸?
+ 이번에도 적이 있는 곳 까지 가서
+ 공격을 해보자.
+,
+참 적에게 유리한 속성의 공격을 하는거,잊지마!</t>
+  </si>
+  <si>
+    <t>네가 어떤 선택을 하든,나는 항상 네 편이야.  자신감을 가져!</t>
+  </si>
+  <si>
+    <t>이번 스테이지에서는
+ 위로 세칸,오른쪽으로 세칸 이동해서
+ 풀 속성 공격을 사용하면 될 것 같아!</t>
+  </si>
+  <si>
+    <t>이번 스테이지에서는
+ 왼쪽,위,오른쪽으로 두칸씩 이동해서
+ 물 속성 공격을 사용하면 될 것 같아!</t>
+  </si>
+  <si>
+    <t>이번 스테이지에서는
+ 풀 속성 공격을 3번째,불 속성 공격을 6번째,
+ 그리고 물 속성 공격을 9번째로 사용하면 될 것 같아!</t>
+  </si>
+  <si>
+    <t>이번 스테이지에서는
+ 아래로 두칸,왼쪽으로 두칸씩 이동해서
+ 불 속성 공격을 하는걸 2회 반복하는 반복 블록을 사용하면 될 것 같아!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,6 +870,19 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -73,8 +905,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -355,29 +1203,709 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="64" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>100</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>101</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>103</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>104</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>110</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>111</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>113</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>114</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="176.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>120</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>121</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>122</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>124</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>130</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>131</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>133</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>134</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>200</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>201</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D19" s="4">
         <v>0</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>202</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>203</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>210</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>300</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>301</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>302</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>303</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>304</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>310</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>311</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>312</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>313</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>314</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>320</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>321</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="2">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>322</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="2">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>323</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="2">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>324</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="2">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>330</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="2">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>331</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="2">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>332</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="2">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>333</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="2">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>334</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="2">
+        <v>4005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>400</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>410</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>411</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>420</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>421</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>422</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>423</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A2:C49">
+    <sortCondition ref="A2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Assets/PSW/Excel/UIText.xlsx
+++ b/Assets/PSW/Excel/UIText.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="60">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -850,6 +850,366 @@
     <t>이번 스테이지에서는
  아래로 두칸,왼쪽으로 두칸씩 이동해서
  불 속성 공격을 하는걸 2회 반복하는 반복 블록을 사용하면 될 것 같아!</t>
+  </si>
+  <si>
+    <t>와! 정말 멋진 코딩이였어!
+,
+계속 이렇게 나아가자!</t>
+  </si>
+  <si>
+    <t>Praise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잘했어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코딩몬도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버그가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>풀릴거야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>훌륭한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>순차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코딩이었어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>놀라워</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">!
+,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>으</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여긴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>너무</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>더우니</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>얼른</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>벗어나자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대단해!
+ 스테이지를 완벽하게 클리어했어!
+,
+헤헤 역시 넌 최고야!</t>
+  </si>
+  <si>
+    <t>좋아! 이번에도 완벽하게 목표를 달성했어!
+,
+정말 멋진 결과야
+ 매번 놀라운 실력이네!</t>
+  </si>
+  <si>
+    <t>우와! 반복 코딩까지 완벽하게 익힌거야?
+,
+역시... 넌 대단해!
+,
+이번 버그도 해결했으니
+ 강도 조만간 깨끗해질거야.
+ 정말 고생했어!</t>
+  </si>
+  <si>
+    <t>이번엔 상당히 까다로웠네.
+ 네가 조건 코딩을 잘해서
+ 겨우 이길 수 있었어.
+,
+고마워! 이제 다음 지역으로 가자.
+ 아마도 마지막이 될거야!</t>
+  </si>
+  <si>
+    <t>휴... 정말 쉽지 않은 상대였어.
+,
+네가 순차, 반복, 조건 코딩을
+ 완벽하게 해내지 못했다면 이기지 못했을거야.
+,
+정말 수고했어. 쉽지 않았을텐데.
+ 정말 잘해줬어.
+,
+역시 내 파트너야!</t>
   </si>
 </sst>
 </file>
@@ -905,7 +1265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -922,6 +1282,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1203,10 +1569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1230,7 +1596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>100</v>
       </c>
@@ -1244,7 +1610,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="71.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>101</v>
       </c>
@@ -1272,7 +1638,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="85.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>104</v>
       </c>
@@ -1286,7 +1652,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="156.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>110</v>
       </c>
@@ -1314,7 +1680,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="71.25" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>113</v>
       </c>
@@ -1356,7 +1722,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>121</v>
       </c>
@@ -1370,7 +1736,7 @@
         <v>3002</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="85.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>122</v>
       </c>
@@ -1384,7 +1750,7 @@
         <v>3003</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="99.75" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>124</v>
       </c>
@@ -1398,7 +1764,7 @@
         <v>3005</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="85.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>130</v>
       </c>
@@ -1412,7 +1778,7 @@
         <v>4001</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="57" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>131</v>
       </c>
@@ -1426,7 +1792,7 @@
         <v>4002</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="114" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>133</v>
       </c>
@@ -1440,7 +1806,7 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="99.75" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>134</v>
       </c>
@@ -1524,7 +1890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>300</v>
       </c>
@@ -1538,7 +1904,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>301</v>
       </c>
@@ -1552,7 +1918,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>302</v>
       </c>
@@ -1566,7 +1932,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>303</v>
       </c>
@@ -1580,7 +1946,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>304</v>
       </c>
@@ -1594,7 +1960,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>310</v>
       </c>
@@ -1608,7 +1974,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>311</v>
       </c>
@@ -1622,7 +1988,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="71.25" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>312</v>
       </c>
@@ -1636,7 +2002,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="85.5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>313</v>
       </c>
@@ -1650,7 +2016,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="114" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>314</v>
       </c>
@@ -1664,7 +2030,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>320</v>
       </c>
@@ -1678,7 +2044,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="85.5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>321</v>
       </c>
@@ -1692,7 +2058,7 @@
         <v>3002</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="128.25" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>322</v>
       </c>
@@ -1706,7 +2072,7 @@
         <v>3003</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="128.25" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>323</v>
       </c>
@@ -1720,7 +2086,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="128.25" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>324</v>
       </c>
@@ -1804,7 +2170,7 @@
         <v>4005</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="85.5" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>400</v>
       </c>
@@ -1818,7 +2184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="57" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>410</v>
       </c>
@@ -1832,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="71.25" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>411</v>
       </c>
@@ -1846,7 +2212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="71.25" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>420</v>
       </c>
@@ -1860,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="57" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>421</v>
       </c>
@@ -1874,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="71.25" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>422</v>
       </c>
@@ -1888,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="57" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>423</v>
       </c>
@@ -1900,6 +2266,104 @@
       </c>
       <c r="D49" s="4">
         <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="57" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
+        <v>500</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="42.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="7">
+        <v>501</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="57" x14ac:dyDescent="0.3">
+      <c r="A52" s="7">
+        <v>502</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="71.25" x14ac:dyDescent="0.3">
+      <c r="A53" s="7">
+        <v>503</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="99.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="7">
+        <v>504</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="3">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="85.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="7">
+        <v>505</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="3">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="128.25" x14ac:dyDescent="0.3">
+      <c r="A56" s="7">
+        <v>506</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="3">
+        <v>4005</v>
       </c>
     </row>
   </sheetData>
